--- a/Planilha Despesas.xlsx
+++ b/Planilha Despesas.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafae\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{692EB112-1DBB-4368-80D6-FC2F9A67ABBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34256C7F-5A6D-4D47-ACCF-2864C10FA873}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{F4B34ADD-1117-498F-9B66-BA3850F04823}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" firstSheet="3" activeTab="4" xr2:uid="{F4B34ADD-1117-498F-9B66-BA3850F04823}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Planilha2" sheetId="2" state="hidden" r:id="rId1"/>
+    <sheet name="Planilha3" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Planilha4" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId4"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="4" r:id="rId6"/>
+    <pivotCache cacheId="19" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="24">
   <si>
     <t>Nome da despesa</t>
   </si>
@@ -74,6 +82,30 @@
   <si>
     <t>Urgencia</t>
   </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>(Tudo)</t>
+  </si>
+  <si>
+    <t>Soma de Valor</t>
+  </si>
+  <si>
+    <t>Contagem de Importancia</t>
+  </si>
+  <si>
+    <t>Rótulos de Coluna</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
 </sst>
 </file>
 
@@ -106,7 +138,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,6 +148,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -148,13 +198,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -164,6 +211,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -171,6 +231,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF7B4545"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -180,6 +245,2578 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Planilha Despesas.xlsx]Planilha2!Tabela dinâmica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha2!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha2!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Comida/fast food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compra do mês</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conta cartão de crédito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contas de luz e agua</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estética</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Investimento</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Total</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Urgencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha2!$B$5:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F03C-4AF3-8055-D071BD31A8BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1309531984"/>
+        <c:axId val="1410813872"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1309531984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1410813872"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1410813872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1309531984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Planilha Despesas.xlsx]Planilha5!Tabela dinâmica4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ALTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Comida/fast food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compra do mês</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conta cartão de crédito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contas de luz e agua</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estética</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Investimento</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Urgencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD0A-4F7B-84CF-019999A29A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BAIXA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Comida/fast food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compra do mês</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conta cartão de crédito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contas de luz e agua</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estética</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Investimento</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Urgencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD0A-4F7B-84CF-019999A29A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$D$3:$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MÉDIA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$5:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Comida/fast food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Compra do mês</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Conta cartão de crédito</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Contas de luz e agua</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Estética</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Internet</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Investimento</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Lazer</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Urgencia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AD0A-4F7B-84CF-019999A29A19}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1658125200"/>
+        <c:axId val="1482382752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1658125200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1482382752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1482382752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1658125200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DB4ED20-0AE6-470F-9E5E-E1883A24BBED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C25712-A2C0-4D0A-85D2-446967B1B081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45159.832691898147" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="10" xr:uid="{761DB237-B53E-4704-A00C-8F2AE8BAB55B}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:C12" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Nome da despesa" numFmtId="0">
+      <sharedItems count="10">
+        <s v="Compra do mês"/>
+        <s v="Contas de luz e agua"/>
+        <s v="Conta cartão de crédito"/>
+        <s v="Lazer"/>
+        <s v="Comida/fast food"/>
+        <s v="Estética"/>
+        <s v="Internet"/>
+        <s v="Investimento"/>
+        <s v="Urgencia"/>
+        <s v="Total"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="6000" count="6">
+        <n v="1500"/>
+        <n v="400"/>
+        <n v="1000"/>
+        <n v="300"/>
+        <n v="200"/>
+        <n v="6000"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Importancia" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
+        <s v="ALTA"/>
+        <s v="MÉDIA"/>
+        <s v="BAIXA"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45159.840728703704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9" xr:uid="{AEB3A49F-395A-4F61-9F51-E0B3815F0881}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:C11" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Nome da despesa" numFmtId="0">
+      <sharedItems count="9">
+        <s v="Compra do mês"/>
+        <s v="Contas de luz e agua"/>
+        <s v="Conta cartão de crédito"/>
+        <s v="Lazer"/>
+        <s v="Comida/fast food"/>
+        <s v="Estética"/>
+        <s v="Internet"/>
+        <s v="Investimento"/>
+        <s v="Urgencia"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Valor" numFmtId="44">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="1500" count="5">
+        <n v="1500"/>
+        <n v="400"/>
+        <n v="1000"/>
+        <n v="300"/>
+        <n v="200"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Importancia" numFmtId="0">
+      <sharedItems count="3">
+        <s v="ALTA"/>
+        <s v="MÉDIA"/>
+        <s v="BAIXA"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="9">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="3"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="3"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="4"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="3"/>
+    <x v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3E273820-0271-46AB-BF9F-64C8B2C43B2B}" name="Tabela dinâmica1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A4:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="11">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" numFmtId="44" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Contagem de Importancia" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{80ACAB0B-5DAE-4C2F-B673-02EF9A06FE44}" name="Tabela dinâmica4" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:E14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="44" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Valor" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="3">
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -478,136 +3115,517 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F06D0DCD-C79F-4D1F-97C0-C1AF4FD99439}">
+  <dimension ref="A2:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDB27B0-EDE8-495A-BE25-479E5FECF85D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A97184-9EFE-49AC-92B7-3B9D8A7CB181}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F39" sqref="F38:F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DE369F-FA2D-4C25-B34D-4E64C8DEC3CD}">
+  <dimension ref="A3:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
+        <v>300</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="14">
+        <v>1500</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="14">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="14">
+        <v>400</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14">
+        <v>300</v>
+      </c>
+      <c r="E9" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="14">
+        <v>200</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="14">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="14">
+        <v>300</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="14">
+        <v>3400</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1300</v>
+      </c>
+      <c r="D14" s="14">
+        <v>1300</v>
+      </c>
+      <c r="E14" s="14">
+        <v>6000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84AF2F2F-3E25-4297-8C00-A1D49D0764AA}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>1500</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
+        <f>COUNTIF(C3:C12,E3)</f>
+        <v>5</v>
+      </c>
+      <c r="G3" s="15">
+        <f>SUMIF(C:C,E3,B:B)</f>
+        <v>3400</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>400</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F5" si="0">COUNTIF(C4:C13,E4)</f>
+        <v>2</v>
+      </c>
+      <c r="G4" s="15">
+        <f t="shared" ref="G4:G5" si="1">SUMIF(C:C,E4,B:B)</f>
+        <v>1300</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="6">
         <v>1000</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G5" s="15">
+        <f t="shared" si="1"/>
+        <v>1300</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
         <v>1000</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>300</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>300</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>200</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <v>1000</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <v>300</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <f>SUM(B3:B11)</f>
+        <v>6000</v>
+      </c>
+      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -624,6 +3642,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DCD1EEE5A5A57B48B91C3867B9230F7D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a3771172973057a0299c246b8e1f4c8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="78c13a8a-f3cb-4f2a-a00a-d42a564ddd85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e09f9e78d3a244133bf504c893f34c93" ns3:_="">
     <xsd:import namespace="78c13a8a-f3cb-4f2a-a00a-d42a564ddd85"/>
@@ -767,22 +3800,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6894B4A9-DE09-4ED9-9878-78BF74AC9FAC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="78c13a8a-f3cb-4f2a-a00a-d42a564ddd85"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{023F35D2-2B81-4FAF-B48E-4D6A4287EDED}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B909F87-E2F3-4035-BE57-730494CD0C6C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -798,28 +3840,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{023F35D2-2B81-4FAF-B48E-4D6A4287EDED}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6894B4A9-DE09-4ED9-9878-78BF74AC9FAC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="78c13a8a-f3cb-4f2a-a00a-d42a564ddd85"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>